--- a/RABackup/Comparison Sheets.xlsx
+++ b/RABackup/Comparison Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A4ECB-14D9-B248-9453-72E2432FCB00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825AF06-7070-9148-807E-310A9740A145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{730D2282-5CA4-3B47-8F6F-F8AF36DAB27E}"/>
   </bookViews>
@@ -20536,10 +20536,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98CDC49-002E-144D-BB83-C4291613DBB2}">
   <dimension ref="A1:AU181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="AH113" sqref="AH113:AU113"/>
+      <selection pane="bottomLeft" activeCell="AS109" sqref="AS109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29695,7 +29695,7 @@
         <v>100</v>
       </c>
       <c r="AS113" s="3">
-        <f t="shared" si="23"/>
+        <f>SUM(AS2:AS109)/107 * 100</f>
         <v>100.93457943925233</v>
       </c>
       <c r="AT113" s="3"/>
